--- a/Recycling/Met_rec_tech/metrec_tech_Min_hist_Max.xlsx
+++ b/Recycling/Met_rec_tech/metrec_tech_Min_hist_Max.xlsx
@@ -137,7 +137,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.471133903500981E-10</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -690,13 +690,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.0002918075318022617</v>
+      </c>
+      <c r="E7">
         <v>19.85989100745863</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.83265822859841E-06</v>
-      </c>
-      <c r="F7">
-        <v>0.0002918075318022617</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -706,10 +706,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1.058489486330707</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.294546112906335</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -805,13 +805,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>201760.5210675096</v>
+      </c>
+      <c r="E7">
         <v>1261387.358599257</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>46214.12938323138</v>
-      </c>
-      <c r="F7">
-        <v>201760.5210675096</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -821,10 +821,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>67229.23387476483</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -891,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.656587650135855</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -920,13 +920,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>189208.8089100012</v>
+      </c>
+      <c r="E7">
         <v>1260255.762467423</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>42172.38442977388</v>
-      </c>
-      <c r="F7">
-        <v>189208.8089100012</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -936,10 +936,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>67168.92223418894</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.460880142718357E-09</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1035,13 +1035,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.002989130578166512</v>
+      </c>
+      <c r="E7">
         <v>38.47905475005235</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3.459705615067455E-05</v>
-      </c>
-      <c r="F7">
-        <v>0.002989130578166512</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1051,10 +1051,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2.050850877357662</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1121,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.613344725735612E-08</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1150,13 +1150,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.02632256633042986</v>
+      </c>
+      <c r="E7">
         <v>78.14091137523224</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.0003556298574476586</v>
-      </c>
-      <c r="F7">
-        <v>0.02632256633042986</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1166,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4.164742551302001</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.055380975791028E-07</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1265,13 +1265,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.1663059673377174</v>
+      </c>
+      <c r="E7">
         <v>134.4374021239084</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.002569260625851749</v>
-      </c>
-      <c r="F7">
-        <v>0.1663059673377174</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1281,10 +1281,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7.165224454873782</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.723507588714571E-06</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1380,13 +1380,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.9949436476446523</v>
+      </c>
+      <c r="E7">
         <v>252.4287805857896</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.01725460777585243</v>
-      </c>
-      <c r="F7">
-        <v>0.9949436476446523</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1396,10 +1396,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>13.45391121215074</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.512728821623399E-05</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1495,13 +1495,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>5.00237484350919</v>
+      </c>
+      <c r="E7">
         <v>448.2917121946711</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.09583796497023335</v>
-      </c>
-      <c r="F7">
-        <v>5.00237484350919</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1511,10 +1511,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>23.89298430636109</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.136055837529398E-05</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1610,13 +1610,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>18.61897571427275</v>
+      </c>
+      <c r="E7">
         <v>646.6762012379611</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.3887458849243374</v>
-      </c>
-      <c r="F7">
-        <v>18.61897571427275</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1626,10 +1626,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>34.46645098976576</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1696,10 +1696,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0002649118756789803</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1725,13 +1725,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>74.59529054724169</v>
+      </c>
+      <c r="E7">
         <v>1077.655154487581</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.678332209885107</v>
-      </c>
-      <c r="F7">
-        <v>74.59529054724169</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1741,10 +1741,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>57.43670247167015</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1811,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.001057618187354195</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1840,13 +1840,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>278.7544733287496</v>
+      </c>
+      <c r="E7">
         <v>1770.633865480805</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6.700472242127153</v>
-      </c>
-      <c r="F7">
-        <v>278.7544733287496</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1856,10 +1856,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>94.37097766793656</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.003949669355732691</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1955,13 +1955,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>978.7626368001029</v>
+      </c>
+      <c r="E7">
         <v>2870.980060704132</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>25.02287706480615</v>
-      </c>
-      <c r="F7">
-        <v>978.7626368001029</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1971,10 +1971,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>153.0170638186848</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2156,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.01225885235020655</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2185,13 +2185,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2844.624921679365</v>
+      </c>
+      <c r="E7">
         <v>4072.68373048705</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>77.66517338207004</v>
-      </c>
-      <c r="F7">
-        <v>2844.624921679365</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2201,10 +2201,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>217.0652854163025</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2271,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.03717896282191014</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2300,13 +2300,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>7892.810760013766</v>
+      </c>
+      <c r="E7">
         <v>6013.402449052555</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>235.5449361196144</v>
-      </c>
-      <c r="F7">
-        <v>7892.810760013766</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2316,10 +2316,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>320.5014200232497</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2386,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1000302110725976</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2415,13 +2415,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>18260.16552812645</v>
+      </c>
+      <c r="E7">
         <v>8735.18182112988</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>633.7349912096345</v>
-      </c>
-      <c r="F7">
-        <v>18260.16552812645</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2431,10 +2431,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>465.5664079616857</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2501,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1847101845458313</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2530,13 +2530,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>26113.31335185525</v>
+      </c>
+      <c r="E7">
         <v>10600.32552415974</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1170.219535921275</v>
-      </c>
-      <c r="F7">
-        <v>26113.31335185525</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2546,10 +2546,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>564.9745567481812</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2616,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.2666873654337414</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2645,13 +2645,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>29342.94472743226</v>
+      </c>
+      <c r="E7">
         <v>14442.00303015259</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1689.580711433401</v>
-      </c>
-      <c r="F7">
-        <v>29342.94472743226</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2661,10 +2661,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>769.7277071274772</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.2146345498860427</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2760,13 +2760,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>27671.55337161953</v>
+      </c>
+      <c r="E7">
         <v>18679.39443791283</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1359.803434650325</v>
-      </c>
-      <c r="F7">
-        <v>27671.55337161953</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2776,10 +2776,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>995.5715575744817</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1150943787647307</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2875,13 +2875,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>28304.99391314046</v>
+      </c>
+      <c r="E7">
         <v>23581.43748373293</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>729.1730601448872</v>
-      </c>
-      <c r="F7">
-        <v>28304.99391314046</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2891,10 +2891,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1256.8399111416</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1206726495889813</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2990,13 +2990,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>30031.32236649891</v>
+      </c>
+      <c r="E7">
         <v>29090.26333853585</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>764.5138374347176</v>
-      </c>
-      <c r="F7">
-        <v>30031.32236649891</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3006,10 +3006,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1550.44848367333</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1998263114380704</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3105,13 +3105,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>31889.68857947679</v>
+      </c>
+      <c r="E7">
         <v>35106.48334381856</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1265.98678903868</v>
-      </c>
-      <c r="F7">
-        <v>31889.68857947679</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3121,10 +3121,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1871.100073385106</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3191,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.282744141719142</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3220,13 +3220,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>33121.91589355267</v>
+      </c>
+      <c r="E7">
         <v>41501.09360657035</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1791.307388493977</v>
-      </c>
-      <c r="F7">
-        <v>33121.91589355267</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3236,10 +3236,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2211.919050174212</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3335,10 +3335,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.0003525808253633283</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3351,10 +3351,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1.879179984365096E-05</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.4008030897725734</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3450,13 +3450,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>34941.52698757352</v>
+      </c>
+      <c r="E7">
         <v>48150.48337250657</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2539.262287365083</v>
-      </c>
-      <c r="F7">
-        <v>34941.52698757352</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3466,10 +3466,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2566.317226635259</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3536,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.5316856057928749</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3565,13 +3565,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>37427.25411368956</v>
+      </c>
+      <c r="E7">
         <v>54985.51107468767</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3368.460079214417</v>
-      </c>
-      <c r="F7">
-        <v>37427.25411368956</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3581,10 +3581,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2930.60950592424</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3651,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.6088054289365593</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3680,13 +3680,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>36906.44104844668</v>
+      </c>
+      <c r="E7">
         <v>62051.78497507393</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3857.047776051137</v>
-      </c>
-      <c r="F7">
-        <v>36906.44104844668</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3696,10 +3696,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3307.226710333009</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3766,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.7758022329478279</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3795,13 +3795,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>36889.19457644587</v>
+      </c>
+      <c r="E7">
         <v>69580.33074009149</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4915.045324864766</v>
-      </c>
-      <c r="F7">
-        <v>36889.19457644587</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3811,10 +3811,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3708.482011111742</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.278272956797149</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3910,13 +3910,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>37517.05623979049</v>
+      </c>
+      <c r="E7">
         <v>78062.26840380207</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>8098.416391938126</v>
-      </c>
-      <c r="F7">
-        <v>37517.05623979049</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3926,10 +3926,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4160.551050029341</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.000137657827613</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4025,13 +4025,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>37828.51418327849</v>
+      </c>
+      <c r="E7">
         <v>88315.15591415799</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>12671.74394025325</v>
-      </c>
-      <c r="F7">
-        <v>37828.51418327849</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4041,10 +4041,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4707.007907731499</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.813010100655219</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4140,13 +4140,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>39764.26319351936</v>
+      </c>
+      <c r="E7">
         <v>101524.8357840965</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>17821.64520394284</v>
-      </c>
-      <c r="F7">
-        <v>39764.26319351936</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4156,10 +4156,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5411.055440261915</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4226,10 +4226,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.431027823864105</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4255,13 +4255,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>40898.50869015128</v>
+      </c>
+      <c r="E7">
         <v>119243.9001925152</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>21737.05687993073</v>
-      </c>
-      <c r="F7">
-        <v>40898.50869015128</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4271,10 +4271,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6355.443472244772</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4341,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.101328165254402</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4370,13 +4370,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>39932.11112556286</v>
+      </c>
+      <c r="E7">
         <v>143330.0757522999</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19648.26582360477</v>
-      </c>
-      <c r="F7">
-        <v>39932.11112556286</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4386,10 +4386,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7639.184837510713</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4456,10 +4456,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.862451533039781</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4485,13 +4485,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>37455.12041056198</v>
+      </c>
+      <c r="E7">
         <v>175809.205224383</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>18134.87823006214</v>
-      </c>
-      <c r="F7">
-        <v>37455.12041056198</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4501,10 +4501,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>9370.252599084146</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4600,10 +4600,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.01216427101931302</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4616,10 +4616,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.0006483294887159501</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4686,10 +4686,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.755881358387649</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4715,13 +4715,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>36912.15694699272</v>
+      </c>
+      <c r="E7">
         <v>218659.329425278</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>17459.70971874747</v>
-      </c>
-      <c r="F7">
-        <v>36912.15694699272</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4731,10 +4731,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>11654.07207913961</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4801,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.487289674880813</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4830,13 +4830,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>43505.60588420551</v>
+      </c>
+      <c r="E7">
         <v>273549.6882415251</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>15758.06432221171</v>
-      </c>
-      <c r="F7">
-        <v>43505.60588420551</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4846,10 +4846,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>14579.61017429315</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4916,10 +4916,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.195109751673112</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4945,13 +4945,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>58420.24669793575</v>
+      </c>
+      <c r="E7">
         <v>341568.8212480194</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>13906.97714484606</v>
-      </c>
-      <c r="F7">
-        <v>58420.24669793575</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4961,10 +4961,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>18204.88370321961</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5031,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.103065286562526</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5060,13 +5060,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>86349.59197301272</v>
+      </c>
+      <c r="E7">
         <v>422972.0365140986</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>13323.83533536394</v>
-      </c>
-      <c r="F7">
-        <v>86349.59197301272</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5076,10 +5076,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>22543.50003703031</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5146,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.974594647793153</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5175,13 +5175,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>127613.181060661</v>
+      </c>
+      <c r="E7">
         <v>516973.8278609047</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>18845.35374621266</v>
-      </c>
-      <c r="F7">
-        <v>127613.181060661</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5191,10 +5191,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>27553.59338545195</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5261,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.400950777618372</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5290,13 +5290,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>175324.2995123976</v>
+      </c>
+      <c r="E7">
         <v>621605.9222217505</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27881.94159006474</v>
-      </c>
-      <c r="F7">
-        <v>175324.2995123976</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5306,10 +5306,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>33130.2590263723</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5376,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.960710434323047</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5405,13 +5405,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>229585.4768370133</v>
+      </c>
+      <c r="E7">
         <v>733665.1388953439</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>37763.69892849012</v>
-      </c>
-      <c r="F7">
-        <v>229585.4768370133</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5421,10 +5421,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>39102.77431615443</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5491,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.451902831757021</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5520,13 +5520,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>317540.5631286554</v>
+      </c>
+      <c r="E7">
         <v>848776.7948167064</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>53546.48869930782</v>
-      </c>
-      <c r="F7">
-        <v>317540.5631286554</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5536,10 +5536,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>45237.97805423738</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5606,10 +5606,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.27313944749775</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5635,13 +5635,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>415733.3896487782</v>
+      </c>
+      <c r="E7">
         <v>961600.0078660164</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>71420.25246232892</v>
-      </c>
-      <c r="F7">
-        <v>415733.3896487782</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5651,10 +5651,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>51251.21270803754</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5721,10 +5721,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.32901926512756</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5750,13 +5750,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>451180.4700621936</v>
+      </c>
+      <c r="E7">
         <v>1066192.666627985</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>78109.71137448118</v>
-      </c>
-      <c r="F7">
-        <v>451180.4700621936</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5766,10 +5766,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>56825.77651633539</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5865,10 +5865,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.09443816698221945</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.005033351231458475</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5951,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.39871850116456</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5980,13 +5980,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>451481.5469561804</v>
+      </c>
+      <c r="E7">
         <v>1156528.98579668</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>78551.28641729671</v>
-      </c>
-      <c r="F7">
-        <v>451481.5469561804</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5996,10 +5996,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>61640.50807946271</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6066,10 +6066,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.32837154828064</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6095,13 +6095,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>446072.1532844109</v>
+      </c>
+      <c r="E7">
         <v>1227124.211945481</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>78105.60780591037</v>
-      </c>
-      <c r="F7">
-        <v>446072.1532844109</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6111,10 +6111,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>65403.08183354729</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6181,10 +6181,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.09136413703819</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6210,13 +6210,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>433325.3986612544</v>
+      </c>
+      <c r="E7">
         <v>1273681.095766389</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76604.06254203658</v>
-      </c>
-      <c r="F7">
-        <v>433325.3986612544</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6226,10 +6226,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>67884.46363077081</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6296,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.84104406449795</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6325,13 +6325,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>416877.5218740663</v>
+      </c>
+      <c r="E7">
         <v>1293647.67618495</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>75018.17576573305</v>
-      </c>
-      <c r="F7">
-        <v>416877.5218740663</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6341,10 +6341,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>68948.63943330095</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6411,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.88124954101201</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6440,13 +6440,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>405215.2363132768</v>
+      </c>
+      <c r="E7">
         <v>1286579.390868291</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>75272.89498537687</v>
-      </c>
-      <c r="F7">
-        <v>405215.2363132768</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6456,10 +6456,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>68571.91502472997</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6526,10 +6526,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.86253928573731</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6555,13 +6555,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>385860.2718130947</v>
+      </c>
+      <c r="E7">
         <v>1254234.499013215</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>75154.35736224383</v>
-      </c>
-      <c r="F7">
-        <v>385860.2718130947</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6571,10 +6571,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>66848.00183949425</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6641,10 +6641,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.02207589725267</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6670,13 +6670,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>336211.088015347</v>
+      </c>
+      <c r="E7">
         <v>1200390.948357697</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>69829.65543067663</v>
-      </c>
-      <c r="F7">
-        <v>336211.088015347</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6686,10 +6686,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>63978.2563683748</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.652379128974029</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6785,13 +6785,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>238219.4360967303</v>
+      </c>
+      <c r="E7">
         <v>1130434.417600723</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>54816.5934315907</v>
-      </c>
-      <c r="F7">
-        <v>238219.4360967303</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6801,10 +6801,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>60249.72370529937</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6871,10 +6871,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.623936387431723</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6900,13 +6900,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>127789.0326066465</v>
+      </c>
+      <c r="E7">
         <v>1050808.115620686</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>35630.08853861089</v>
-      </c>
-      <c r="F7">
-        <v>127789.0326066465</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6916,10 +6916,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>56005.81302877001</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6986,10 +6986,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.318278904495178</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7015,13 +7015,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>87307.87525864053</v>
+      </c>
+      <c r="E7">
         <v>968418.4892910681</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27358.17923641953</v>
-      </c>
-      <c r="F7">
-        <v>87307.87525864053</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7031,10 +7031,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>51614.62310633468</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7101,10 +7101,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.622905251053116E-16</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7130,13 +7130,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2.205813426717631E-10</v>
+      </c>
+      <c r="E7">
         <v>0.3879221422237807</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.028181220435276E-12</v>
-      </c>
-      <c r="F7">
-        <v>2.205813426717631E-10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7146,10 +7146,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.02067541603851435</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7216,10 +7216,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.994806702382956</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7245,13 +7245,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>84758.02803532656</v>
+      </c>
+      <c r="E7">
         <v>890058.6096346087</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>25308.84183160916</v>
-      </c>
-      <c r="F7">
-        <v>84758.02803532656</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7261,10 +7261,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>47438.21001648684</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7331,10 +7331,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.632131604068606</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7360,13 +7360,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>84642.82410122419</v>
+      </c>
+      <c r="E7">
         <v>821873.1062406164</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>23011.13699046482</v>
-      </c>
-      <c r="F7">
-        <v>84642.82410122419</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7376,10 +7376,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>43804.06930364999</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.138118799609358</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7475,13 +7475,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>86104.62725807216</v>
+      </c>
+      <c r="E7">
         <v>768871.9713918812</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19881.35052961038</v>
-      </c>
-      <c r="F7">
-        <v>86104.62725807216</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7491,10 +7491,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>40979.22278360048</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7561,10 +7561,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.820631927234779</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7590,13 +7590,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>96282.69274760765</v>
+      </c>
+      <c r="E7">
         <v>734516.9465965641</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>17869.93279774681</v>
-      </c>
-      <c r="F7">
-        <v>96282.69274760765</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7606,10 +7606,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>39148.17383500268</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7676,10 +7676,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.241540727824719</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7705,13 +7705,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>127434.927698337</v>
+      </c>
+      <c r="E7">
         <v>720438.5512372173</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>20536.57352739929</v>
-      </c>
-      <c r="F7">
-        <v>127434.927698337</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7721,10 +7721,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>38397.8256348701</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7791,10 +7791,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.392625914933273</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7820,13 +7820,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>174485.7857367418</v>
+      </c>
+      <c r="E7">
         <v>726359.106881813</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27829.19995607245</v>
-      </c>
-      <c r="F7">
-        <v>174485.7857367418</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7836,10 +7836,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>38713.37851986262</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7906,10 +7906,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.011674027513302</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7935,13 +7935,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>231787.4441924849</v>
+      </c>
+      <c r="E7">
         <v>750269.4974024921</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>38086.575506837</v>
-      </c>
-      <c r="F7">
-        <v>231787.4441924849</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7951,10 +7951,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>39987.75092053164</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.948653208711996</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8050,13 +8050,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>299237.6554589414</v>
+      </c>
+      <c r="E7">
         <v>788837.3809891596</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>50358.18296630052</v>
-      </c>
-      <c r="F7">
-        <v>299237.6554589414</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8066,10 +8066,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>42043.33618387385</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.981679173046981</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8165,13 +8165,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>369965.1070638698</v>
+      </c>
+      <c r="E7">
         <v>837949.2205808506</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>63238.28866458529</v>
-      </c>
-      <c r="F7">
-        <v>369965.1070638698</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8181,10 +8181,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>44660.89162980463</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8251,10 +8251,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.54700042923852</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8280,13 +8280,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>423529.4887004517</v>
+      </c>
+      <c r="E7">
         <v>893252.4044374042</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>73155.28116011094</v>
-      </c>
-      <c r="F7">
-        <v>423529.4887004517</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8296,10 +8296,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>47608.43241191625</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8366,10 +8366,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.734383987332302E-14</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8395,13 +8395,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.999106996681615E-08</v>
+      </c>
+      <c r="E7">
         <v>1.239016319969855</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.098807859326078E-10</v>
-      </c>
-      <c r="F7">
-        <v>1.999106996681615E-08</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8411,10 +8411,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.06603690561986016</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8481,10 +8481,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.24067782162499</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8510,13 +8510,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>445602.3158574225</v>
+      </c>
+      <c r="E7">
         <v>950587.7046981008</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>77550.0298210661</v>
-      </c>
-      <c r="F7">
-        <v>445602.3158574225</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8526,10 +8526,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>50664.28062874528</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8596,10 +8596,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.3300151061242</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8625,13 +8625,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>445381.8353701676</v>
+      </c>
+      <c r="E7">
         <v>1006268.611641255</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>78116.02046129089</v>
-      </c>
-      <c r="F7">
-        <v>445381.8353701676</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8641,10 +8641,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>53631.95323916154</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8711,10 +8711,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.20263804678608</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8740,13 +8740,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>435849.4571452438</v>
+      </c>
+      <c r="E7">
         <v>1057229.076466183</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>77309.03126558315</v>
-      </c>
-      <c r="F7">
-        <v>435849.4571452438</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8756,10 +8756,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>56348.03643495826</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8826,10 +8826,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.01037269087538</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8855,13 +8855,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>421339.2655106824</v>
+      </c>
+      <c r="E7">
         <v>1101090.658826048</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76090.9464256986</v>
-      </c>
-      <c r="F7">
-        <v>421339.2655106824</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8871,10 +8871,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>58685.76445996649</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.79719991118062</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8970,13 +8970,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>402457.5108447207</v>
+      </c>
+      <c r="E7">
         <v>1136189.981394402</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>74740.40394240874</v>
-      </c>
-      <c r="F7">
-        <v>402457.5108447207</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8986,10 +8986,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>60556.48287941703</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9056,10 +9056,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.4657937791889</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9085,13 +9085,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>375912.9852666363</v>
+      </c>
+      <c r="E7">
         <v>1161580.666456602</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>72640.8016333407</v>
-      </c>
-      <c r="F7">
-        <v>375912.9852666363</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9101,10 +9101,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>61909.75179609837</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9171,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>10.73545931628737</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9200,13 +9200,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>334041.776597033</v>
+      </c>
+      <c r="E7">
         <v>1177006.551534457</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>68013.8144515273</v>
-      </c>
-      <c r="F7">
-        <v>334041.776597033</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9216,10 +9216,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>62731.9183007445</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9286,10 +9286,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.439913004835777</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9315,13 +9315,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>274989.7613666917</v>
+      </c>
+      <c r="E7">
         <v>1182842.8894361</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>59805.9638282433</v>
-      </c>
-      <c r="F7">
-        <v>274989.7613666917</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9331,10 +9331,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>63042.9825611295</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.89461223417208</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9430,13 +9430,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>213630.9907052807</v>
+      </c>
+      <c r="E7">
         <v>1180011.503185105</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>50015.80983564544</v>
-      </c>
-      <c r="F7">
-        <v>213630.9907052807</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9446,10 +9446,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>62892.07576223045</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9516,10 +9516,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.659543346732566</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9545,13 +9545,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>171064.4649636879</v>
+      </c>
+      <c r="E7">
         <v>1169882.262968189</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>42191.11005612865</v>
-      </c>
-      <c r="F7">
-        <v>171064.4649636879</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9561,10 +9561,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>62352.2090393921</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9631,10 +9631,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.931992821749195E-13</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9660,13 +9660,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>8.631713232770966E-07</v>
+      </c>
+      <c r="E7">
         <v>3.673837599642984</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5.658806806143383E-09</v>
-      </c>
-      <c r="F7">
-        <v>8.631713232770966E-07</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9676,10 +9676,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.1958076442739835</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.848612911954388</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9775,13 +9775,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>149986.8533303731</v>
+      </c>
+      <c r="E7">
         <v>1154171.600659684</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>37053.51225997088</v>
-      </c>
-      <c r="F7">
-        <v>149986.8533303731</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9791,10 +9791,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>61514.8645207037</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9861,10 +9861,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.364713310894826</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9890,13 +9890,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>144875.3221575754</v>
+      </c>
+      <c r="E7">
         <v>1134841.711266813</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>33987.79735108936</v>
-      </c>
-      <c r="F7">
-        <v>144875.3221575754</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9906,10 +9906,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>60484.62298077754</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9976,10 +9976,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.008148509579592</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10005,13 +10005,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>147683.3816462332</v>
+      </c>
+      <c r="E7">
         <v>1113996.237314665</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>31728.8039049676</v>
-      </c>
-      <c r="F7">
-        <v>147683.3816462332</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10021,10 +10021,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>59373.60404277623</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10091,10 +10091,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.821053548753524</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10120,13 +10120,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>158267.6327481378</v>
+      </c>
+      <c r="E7">
         <v>1093764.147647565</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30543.47577176568</v>
-      </c>
-      <c r="F7">
-        <v>158267.6327481378</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10136,10 +10136,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>58295.27716821874</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.08148719675661</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10235,13 +10235,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>182788.5256706896</v>
+      </c>
+      <c r="E7">
         <v>1076165.559236245</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>32193.43645722446</v>
-      </c>
-      <c r="F7">
-        <v>182788.5256706896</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10251,10 +10251,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>57357.31024782387</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10321,10 +10321,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.929925754874653</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10350,13 +10350,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>222697.8540536023</v>
+      </c>
+      <c r="E7">
         <v>1062961.762768912</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>37568.66456486712</v>
-      </c>
-      <c r="F7">
-        <v>222697.8540536023</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10366,10 +10366,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>56653.57628800134</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10436,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.273507530358331</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10465,13 +10465,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>274128.4232841653</v>
+      </c>
+      <c r="E7">
         <v>1055504.294267083</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>46080.84079188327</v>
-      </c>
-      <c r="F7">
-        <v>274128.4232841653</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10481,10 +10481,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>56256.10925251436</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10551,10 +10551,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.89694187944006</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10580,13 +10580,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>331746.5055712961</v>
+      </c>
+      <c r="E7">
         <v>1054608.492642119</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>56366.00506288586</v>
-      </c>
-      <c r="F7">
-        <v>331746.5055712961</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10596,10 +10596,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>56208.36495212992</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10666,10 +10666,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>10.57029623183907</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10695,13 +10695,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>389758.5373204852</v>
+      </c>
+      <c r="E7">
         <v>1060479.676289586</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>66967.4343154799</v>
-      </c>
-      <c r="F7">
-        <v>389758.5373204852</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10711,10 +10711,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>56521.28641583923</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.04002055640314</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10810,13 +10810,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>439940.524274963</v>
+      </c>
+      <c r="E7">
         <v>1072711.641616774</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76278.778577587</v>
-      </c>
-      <c r="F7">
-        <v>439940.524274963</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10826,10 +10826,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>57173.22386560303</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.62352214945313E-11</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10925,13 +10925,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2.078147250660614E-05</v>
+      </c>
+      <c r="E7">
         <v>9.537392029210757</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.66211564335829E-07</v>
-      </c>
-      <c r="F7">
-        <v>2.078147250660614E-05</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10941,10 +10941,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.5083224870741982</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11011,10 +11011,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.01434838083488</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11040,13 +11040,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>471842.1976349708</v>
+      </c>
+      <c r="E7">
         <v>1090360.247338334</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>82451.5700635854</v>
-      </c>
-      <c r="F7">
-        <v>471842.1976349708</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11056,10 +11056,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>58113.8566010824</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11126,10 +11126,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.40948461046763</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11155,13 +11155,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>482187.0844520162</v>
+      </c>
+      <c r="E7">
         <v>1112076.894194415</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>84954.93032172961</v>
-      </c>
-      <c r="F7">
-        <v>482187.0844520162</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11171,10 +11171,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>59271.30718159592</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11241,10 +11241,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.3931141405068</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11270,13 +11270,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>476411.5942005079</v>
+      </c>
+      <c r="E7">
         <v>1136274.877358522</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>84851.2162584933</v>
-      </c>
-      <c r="F7">
-        <v>476411.5942005079</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11286,10 +11286,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>60561.00765175433</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11356,10 +11356,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.18058453187615</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11385,13 +11385,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>461480.1159957407</v>
+      </c>
+      <c r="E7">
         <v>1161299.789985028</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>83504.74854425865</v>
-      </c>
-      <c r="F7">
-        <v>461480.1159957407</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11401,10 +11401,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>61894.78168412708</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11471,10 +11471,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.88575266421558</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11500,13 +11500,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>440943.607441431</v>
+      </c>
+      <c r="E7">
         <v>1185581.465054374</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>81636.8601427777</v>
-      </c>
-      <c r="F7">
-        <v>440943.607441431</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11516,10 +11516,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>63188.9427528736</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11586,10 +11586,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.45494524259275</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11615,13 +11615,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>413182.3353204758</v>
+      </c>
+      <c r="E7">
         <v>1207754.496628121</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>78907.50733398434</v>
-      </c>
-      <c r="F7">
-        <v>413182.3353204758</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11631,10 +11631,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>64370.71765748283</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11701,10 +11701,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.76222075003451</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11730,13 +11730,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>375216.4127344316</v>
+      </c>
+      <c r="E7">
         <v>1226742.975913181</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>74518.79570881859</v>
-      </c>
-      <c r="F7">
-        <v>375216.4127344316</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11746,10 +11746,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>65382.76277279067</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11816,10 +11816,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>10.72971748549655</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11845,13 +11845,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>326873.5930963583</v>
+      </c>
+      <c r="E7">
         <v>1241810.18139206</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>67977.43745055202</v>
-      </c>
-      <c r="F7">
-        <v>326873.5930963583</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11861,10 +11861,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>66185.81242607369</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11931,10 +11931,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.462106452296899</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11960,13 +11960,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>274643.6606562313</v>
+      </c>
+      <c r="E7">
         <v>1252576.348168058</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>59946.568992232</v>
-      </c>
-      <c r="F7">
-        <v>274643.6606562313</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11976,10 +11976,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>66759.62596493938</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -12046,10 +12046,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.243037531613998</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -12075,13 +12075,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>230299.4783957961</v>
+      </c>
+      <c r="E7">
         <v>1259008.552979524</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>52223.23597664713</v>
-      </c>
-      <c r="F7">
-        <v>230299.4783957961</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -12091,10 +12091,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>67102.44865033608</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
